--- a/biology/Médecine/Acutisation/Acutisation.xlsx
+++ b/biology/Médecine/Acutisation/Acutisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acutisation, l'exacerbation, ou transformation aiguë, est le passage d'une maladie de l'état chronique à l'état aigu.
 En cancérologie, l'acutisation est l'évolution rapide vers une aggravation de la malignité. Un cancer qui évoluait jusqu'alors lentement, s'aggrave et s'étend rapidement. Cette transformation aiguë correspond à la phase terminale de la progression tumorale.
@@ -517,7 +529,9 @@
           <t>La phase d'acutisation de la Leucémie Myéloïde Chronique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une leucémie myéloïde chronique (LMC) s'acutise pour devenir une leucémie aiguë soit directement, soit après une phase d'accélération.
 Lors de la phase d'acutisation, l'état général se dégrade sévèrement et une fièvre apparaît. Une anémie et une thrombopénie importante apparaissent à l'hémogramme. La blastose sanguine et médullaire augmentent rapidement jusqu'à dépasser 20 %, ce qui est le critère de transformation en leucémie aiguë. Le pronostic est alors particulièrement sévère et le décès survient rapidement quelles que soient les modalités de traitement.
